--- a/Excel/TI/Mon_TI_2024_12_04.xlsx
+++ b/Excel/TI/Mon_TI_2024_12_04.xlsx
@@ -1522,236 +1522,244 @@
       <c r="AJ7" t="n">
         <v>5.2</v>
       </c>
-      <c r="AK7" t="n">
-        <v>-30.6</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tyrese Haliburton</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>46</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>52</v>
+      </c>
+      <c r="R8" t="n">
+        <v>53</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>BKN</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cameron Johnson</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AL8" t="n">
         <v>3</v>
       </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>37</v>
-      </c>
-      <c r="P8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>20</v>
-      </c>
-      <c r="R8" t="n">
-        <v>12</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Cameron Johnson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="G9" t="n">
         <v>28.5</v>
       </c>
       <c r="H9" t="n">
-        <v>26.4</v>
+        <v>27.8</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>46</v>
-      </c>
-      <c r="O9" t="n">
-        <v>7</v>
-      </c>
-      <c r="P9" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>52</v>
-      </c>
-      <c r="R9" t="n">
-        <v>53</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1786,58 +1794,54 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-7.6</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>3</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2294,12 +2298,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Paul George</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2314,63 +2318,59 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>22.2</v>
+        <v>17.6</v>
       </c>
       <c r="G13" t="n">
-        <v>23.2</v>
+        <v>22.1</v>
       </c>
       <c r="H13" t="n">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
       <c r="N13" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O13" t="n">
-        <v>19</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>28</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R13" t="n">
+        <v>16</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2423,114 +2423,114 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>-23.2</v>
+        <v>-10.4</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>17.6</v>
+        <v>19</v>
       </c>
       <c r="G14" t="n">
-        <v>22.1</v>
+        <v>20.9</v>
       </c>
       <c r="H14" t="n">
-        <v>21.8</v>
+        <v>20.5</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R14" t="n">
-        <v>16</v>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>14</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2579,103 +2579,103 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>-10.4</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>5</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Austin Reaves</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>20.9</v>
+        <v>19.3</v>
       </c>
       <c r="H15" t="n">
-        <v>20.5</v>
+        <v>22.2</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>13</v>
+      </c>
+      <c r="R15" t="n">
         <v>20</v>
       </c>
-      <c r="O15" t="n">
-        <v>12</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2710,51 +2710,51 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
           <t>MEM</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>0.4</v>
+        <v>-2</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -2767,63 +2767,55 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+          <t>Rui Hachimura</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>14</v>
+        <v>18.2</v>
       </c>
       <c r="G16" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="H16" t="n">
-        <v>22.2</v>
+        <v>19.6</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>20</v>
       </c>
       <c r="P16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>29</v>
+      </c>
+      <c r="R16" t="n">
         <v>5</v>
       </c>
-      <c r="Q16" t="n">
-        <v>13</v>
-      </c>
-      <c r="R16" t="n">
-        <v>20</v>
-      </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>@</t>
@@ -2910,7 +2902,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>-2</v>
+        <v>-1.1</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -2923,7 +2915,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Dalton Knecht</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2934,43 +2926,43 @@
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>18.2</v>
+        <v>13.4</v>
       </c>
       <c r="G17" t="n">
-        <v>19.1</v>
+        <v>17.9</v>
       </c>
       <c r="H17" t="n">
-        <v>19.6</v>
+        <v>15.4</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
         <v>29</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -3058,7 +3050,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>-1.1</v>
+        <v>-3.2</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -3071,54 +3063,58 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>13.4</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>17.9</v>
+        <v>16.5</v>
       </c>
       <c r="H18" t="n">
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R18" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -3206,7 +3202,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>-3.2</v>
+        <v>2.2</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -3214,12 +3210,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Bogdan Bogdanović</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -3230,31 +3226,31 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>22.2</v>
+        <v>17.4</v>
       </c>
       <c r="G19" t="n">
-        <v>17.5</v>
+        <v>12.4</v>
       </c>
       <c r="H19" t="n">
-        <v>17</v>
+        <v>12.4</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -3262,13 +3258,13 @@
         </is>
       </c>
       <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
         <v>28</v>
       </c>
-      <c r="Q19" t="n">
-        <v>27</v>
-      </c>
       <c r="R19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3277,7 +3273,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3312,12 +3308,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3327,7 +3323,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3337,17 +3333,17 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3356,7 +3352,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -3364,12 +3360,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -3380,22 +3376,22 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>17.4</v>
+        <v>11.6</v>
       </c>
       <c r="G20" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="H20" t="n">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3404,21 +3400,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>28</v>
+        <v>-2</v>
       </c>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -3427,18 +3421,16 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>15</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -3462,34 +3454,34 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
       <c r="AG20" t="inlineStr">
         <is>
           <t>@</t>
@@ -3506,7 +3498,7 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>0.6</v>
+        <v>-2.6</v>
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -3514,38 +3506,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>Paolo Banchero</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>11.6</v>
+        <v>43.8</v>
       </c>
       <c r="G21" t="n">
-        <v>12.1</v>
+        <v>43.8</v>
       </c>
       <c r="H21" t="n">
-        <v>11.2</v>
+        <v>43.8</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3553,20 +3549,30 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="n">
-        <v>27</v>
-      </c>
-      <c r="O21" t="n">
-        <v>15</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>16</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3575,16 +3581,18 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -3613,37 +3621,37 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
@@ -3652,7 +3660,7 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>-2.6</v>
+        <v>-7.1</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -3660,12 +3668,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>Joel Embiid</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3675,37 +3683,33 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>43.8</v>
+        <v>30.5</v>
       </c>
       <c r="G22" t="n">
-        <v>43.8</v>
+        <v>30.5</v>
       </c>
       <c r="H22" t="n">
-        <v>43.8</v>
+        <v>30.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -3734,23 +3738,21 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>26</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -3774,68 +3776,64 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
+        <v>-12.5</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Joel Embiid</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3845,37 +3843,33 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>30.5</v>
+        <v>36.2</v>
       </c>
       <c r="G23" t="n">
-        <v>30.5</v>
+        <v>29.7</v>
       </c>
       <c r="H23" t="n">
-        <v>30.5</v>
+        <v>31.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
         <v>2</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -3897,10 +3891,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R23" t="n">
+        <v>34</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -3909,16 +3901,18 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>26</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -3947,7 +3941,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3957,7 +3951,7 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
@@ -3967,7 +3961,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -3977,7 +3971,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -3986,24 +3980,20 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>-30.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
+        <v>-5.3</v>
+      </c>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Paul George</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4013,43 +4003,43 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F24" t="n">
-        <v>36.2</v>
+        <v>22.2</v>
       </c>
       <c r="G24" t="n">
-        <v>29.7</v>
+        <v>23.2</v>
       </c>
       <c r="H24" t="n">
-        <v>31.1</v>
+        <v>23.2</v>
       </c>
       <c r="I24" t="n">
         <v>9</v>
       </c>
       <c r="J24" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N24" t="n">
+        <v>50</v>
+      </c>
+      <c r="O24" t="n">
+        <v>19</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -4061,8 +4051,10 @@
           <t>-</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>34</v>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -4071,69 +4063,67 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>14</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
       <c r="AG24" t="inlineStr">
         <is>
           <t>@</t>
@@ -4141,7 +4131,7 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
@@ -4150,7 +4140,7 @@
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>-5.3</v>
+        <v>7.8</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -4176,11 +4166,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
         <v>0</v>
       </c>
@@ -4318,12 +4304,8 @@
       <c r="AJ25" t="n">
         <v>0</v>
       </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4346,11 +4328,7 @@
           <t>F</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -4488,12 +4466,8 @@
       <c r="AJ26" t="n">
         <v>0</v>
       </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
